--- a/DOC/Share Account Type.xlsx
+++ b/DOC/Share Account Type.xlsx
@@ -5,17 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\OpenCore\DOC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Projects\OpenCore\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>CIF NO</t>
   </si>
@@ -63,14 +62,27 @@
     <t>SER#</t>
   </si>
   <si>
-    <t>P &amp; L</t>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>SELL</t>
+  </si>
+  <si>
+    <t>TRN P &amp; L</t>
+  </si>
+  <si>
+    <t>Share P &amp; L</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +107,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -113,15 +132,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -130,8 +147,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -410,171 +436,710 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:R15"/>
+  <dimension ref="C1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="6"/>
+    <col min="10" max="10" width="13.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="6"/>
+    <col min="18" max="18" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="F1" s="6" t="s">
+    <row r="1" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-    </row>
-    <row r="2" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="F2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+    </row>
+    <row r="2" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="9">
         <v>100001</v>
       </c>
     </row>
-    <row r="3" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="F3" s="4" t="s">
+    <row r="3" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="F3" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C5" s="1"/>
-      <c r="E5" s="1" t="s">
+    <row r="5" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4" t="s">
+      <c r="G5" s="3"/>
+      <c r="H5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4" t="s">
+      <c r="K5" s="3"/>
+      <c r="L5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4" t="s">
+      <c r="M5" s="3"/>
+      <c r="N5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4" t="s">
+      <c r="O5" s="3"/>
+      <c r="P5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="R6" s="6">
+        <f>IF(D6="SELL",(H7-P6)*F6,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <f>IF(D7="BUY", N6+J7,N6-(F7*P7))</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
+        <v>0</v>
+      </c>
+      <c r="R7" s="6">
+        <f>IF(D7="SELL",(H8-P7)*F7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C8" s="4">
+        <f>C7+1</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="11">
+        <v>100</v>
+      </c>
+      <c r="H8" s="6">
+        <v>5</v>
+      </c>
+      <c r="J8" s="6">
+        <f>F8*H8</f>
+        <v>500</v>
+      </c>
+      <c r="L8" s="6">
+        <f>IF(D8="BUY", L7+F8,L7-F8)</f>
+        <v>100</v>
+      </c>
+      <c r="N8" s="6">
+        <f>IF(D8="BUY", N7+J8,N7-(F8*P8))</f>
+        <v>500</v>
+      </c>
+      <c r="P8" s="6">
+        <f>IF(D8="BUY",(N7+J8)/L8)</f>
+        <v>5</v>
+      </c>
+      <c r="R8" s="6">
+        <f>IF(D8="SELL",(H9-P8)*F8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="8">
+        <f>R8+S7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C9" s="4">
+        <f>C8+1</f>
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="11">
+        <v>200</v>
+      </c>
+      <c r="H9" s="6">
+        <v>2</v>
+      </c>
+      <c r="J9" s="6">
+        <f>F9*H9</f>
+        <v>400</v>
+      </c>
+      <c r="L9" s="6">
+        <f>IF(D9="BUY", L8+F9,L8-F9)</f>
+        <v>300</v>
+      </c>
+      <c r="N9" s="6">
+        <f>IF(D9="BUY", N8+J9,N8-(F9*P9))</f>
+        <v>900</v>
+      </c>
+      <c r="P9" s="6">
+        <f>IF(D9="BUY",(N8+J9)/L9)</f>
+        <v>3</v>
+      </c>
+      <c r="R9" s="6">
+        <f>IF(D9="SELL",(H9-P9)*F9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="8">
+        <f>R9+S8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C10" s="4">
+        <f>C9+1</f>
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="11">
+        <v>500</v>
+      </c>
+      <c r="H10" s="6">
+        <v>15</v>
+      </c>
+      <c r="J10" s="6">
+        <f>F10*H10</f>
+        <v>7500</v>
+      </c>
+      <c r="L10" s="6">
+        <f>IF(D10="BUY", L9+F10,L9-F10)</f>
+        <v>800</v>
+      </c>
+      <c r="N10" s="6">
+        <f>IF(D10="BUY", N9+J10,N9-(F10*P10))</f>
+        <v>8400</v>
+      </c>
+      <c r="P10" s="6">
+        <f>IF(D10="BUY",(N9+J10)/L10)</f>
+        <v>10.5</v>
+      </c>
+      <c r="R10" s="6">
+        <f>IF(D10="SELL",(H10-P10)*F10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="8">
+        <f>R10+S9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C11" s="4">
+        <f>C10+1</f>
+        <v>4</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="11">
+        <v>200</v>
+      </c>
+      <c r="H11" s="6">
+        <v>11</v>
+      </c>
+      <c r="J11" s="6">
+        <f>F11*H11</f>
+        <v>2200</v>
+      </c>
+      <c r="L11" s="6">
+        <f>IF(D11="BUY", L10+F11,L10-F11)</f>
+        <v>600</v>
+      </c>
+      <c r="N11" s="6">
+        <f>IF(D11="BUY", N10+J11,N10-(F11*P11))</f>
+        <v>6300</v>
+      </c>
+      <c r="P11" s="6">
+        <f>IF(D11="BUY",(N10+J11)/L11,P10)</f>
+        <v>10.5</v>
+      </c>
+      <c r="R11" s="6">
+        <f>IF(D11="SELL",(H11-P11)*F11,0)</f>
+        <v>100</v>
+      </c>
+      <c r="S11" s="8">
+        <f>R11+S10</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C12" s="4">
+        <f>C11+1</f>
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="11">
+        <v>100</v>
+      </c>
+      <c r="H12" s="6">
+        <v>11</v>
+      </c>
+      <c r="J12" s="6">
+        <f>F12*H12</f>
+        <v>1100</v>
+      </c>
+      <c r="L12" s="6">
+        <f>IF(D12="BUY", L11+F12,L11-F12)</f>
+        <v>500</v>
+      </c>
+      <c r="N12" s="6">
+        <f>IF(D12="BUY", N11+J12,N11-(F12*P12))</f>
+        <v>5250</v>
+      </c>
+      <c r="P12" s="6">
+        <f>IF(D12="BUY",(N11+J12)/L12,P11)</f>
+        <v>10.5</v>
+      </c>
+      <c r="R12" s="6">
+        <f>IF(D12="SELL",(H12-P12)*F12,0)</f>
+        <v>50</v>
+      </c>
+      <c r="S12" s="8">
+        <f>R12+S11</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C13" s="4">
+        <f>C12+1</f>
+        <v>6</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="11">
+        <v>500</v>
+      </c>
+      <c r="H13" s="6">
+        <v>10.5</v>
+      </c>
+      <c r="J13" s="6">
+        <f>F13*H13</f>
+        <v>5250</v>
+      </c>
+      <c r="L13" s="6">
+        <f>IF(D13="BUY", L12+F13,L12-F13)</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="6">
+        <f>IF(D13="BUY", N12+J13,N12-(F13*P13))</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="6">
+        <f>IF(D13="BUY",(N12+J13)/L13,P12)</f>
+        <v>10.5</v>
+      </c>
+      <c r="R13" s="6">
+        <f>IF(D13="SELL",(H13-P13)*F13,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="8">
+        <f>R13+S12</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C14" s="4">
+        <f>C13+1</f>
+        <v>7</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="11">
+        <v>100</v>
+      </c>
+      <c r="H14" s="6">
+        <v>20</v>
+      </c>
+      <c r="J14" s="6">
+        <f>F14*H14</f>
+        <v>2000</v>
+      </c>
+      <c r="L14" s="6">
+        <f>IF(D14="BUY", L13+F14,L13-F14)</f>
+        <v>100</v>
+      </c>
+      <c r="N14" s="6">
+        <f>IF(D14="BUY", N13+J14,N13-(F14*P14))</f>
+        <v>2000</v>
+      </c>
+      <c r="P14" s="6">
+        <f>IF(D14="BUY",(N13+J14)/L14,P13)</f>
+        <v>20</v>
+      </c>
+      <c r="R14" s="6">
+        <f>IF(D14="SELL",(H14-P14)*F14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="8">
+        <f>R14+S13</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C15" s="4">
+        <f>C14+1</f>
+        <v>8</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="11">
+        <v>50</v>
+      </c>
+      <c r="H15" s="6">
+        <v>25</v>
+      </c>
+      <c r="J15" s="6">
+        <f>F15*H15</f>
+        <v>1250</v>
+      </c>
+      <c r="L15" s="6">
+        <f>IF(D15="BUY", L14+F15,L14-F15)</f>
+        <v>50</v>
+      </c>
+      <c r="N15" s="6">
+        <f>IF(D15="BUY", N14+J15,N14-(F15*P15))</f>
+        <v>1000</v>
+      </c>
+      <c r="P15" s="6">
+        <f>IF(D15="BUY",(N14+J15)/L15,P14)</f>
+        <v>20</v>
+      </c>
+      <c r="R15" s="6">
+        <f>IF(D15="SELL",(H15-P15)*F15,0)</f>
+        <v>250</v>
+      </c>
+      <c r="S15" s="8">
+        <f>R15+S14</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C16" s="4">
+        <f>C15+1</f>
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="11">
+        <v>50</v>
+      </c>
+      <c r="H16" s="6">
+        <v>30</v>
+      </c>
+      <c r="J16" s="6">
+        <f>F16*H16</f>
+        <v>1500</v>
+      </c>
+      <c r="L16" s="6">
+        <f>IF(D16="BUY", L15+F16,L15-F16)</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="6">
+        <f>IF(D16="BUY", N15+J16,N15-(F16*P16))</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="6">
+        <f>IF(D16="BUY",(N15+J16)/L16,P15)</f>
+        <v>20</v>
+      </c>
+      <c r="R16" s="6">
+        <f>IF(D16="SELL",(H16-P16)*F16,0)</f>
+        <v>500</v>
+      </c>
+      <c r="S16" s="8">
+        <f>R16+S15</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C17" s="4">
+        <f>C16+1</f>
+        <v>10</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="11">
+        <v>5000</v>
+      </c>
+      <c r="H17" s="6">
+        <v>500</v>
+      </c>
+      <c r="J17" s="6">
+        <f>F17*H17</f>
+        <v>2500000</v>
+      </c>
+      <c r="L17" s="6">
+        <f>IF(D17="BUY", L16+F17,L16-F17)</f>
+        <v>5000</v>
+      </c>
+      <c r="N17" s="6">
+        <f>IF(D17="BUY", N16+J17,N16-(F17*P17))</f>
+        <v>2500000</v>
+      </c>
+      <c r="P17" s="6">
+        <f>IF(D17="BUY",(N16+J17)/L17,P16)</f>
+        <v>500</v>
+      </c>
+      <c r="R17" s="6">
+        <f>IF(D17="SELL",(H17-P17)*F17,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="8">
+        <f>R17+S16</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C18" s="4">
+        <f>C17+1</f>
+        <v>11</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="11">
+        <v>5000</v>
+      </c>
+      <c r="H18" s="6">
+        <v>499</v>
+      </c>
+      <c r="J18" s="6">
+        <f>F18*H18</f>
+        <v>2495000</v>
+      </c>
+      <c r="L18" s="6">
+        <f>IF(D18="BUY", L17+F18,L17-F18)</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="6">
+        <f>IF(D18="BUY", N17+J18,N17-(F18*P18))</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="6">
+        <f>IF(D18="BUY",(N17+J18)/L18,P17)</f>
+        <v>500</v>
+      </c>
+      <c r="R18" s="6">
+        <f>IF(D18="SELL",(H18-P18)*F18,0)</f>
+        <v>-5000</v>
+      </c>
+      <c r="S18" s="8">
+        <f>R18+S17</f>
+        <v>-4100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C19" s="4">
+        <f>C18+1</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="E8" s="5">
-        <f>E7+1</f>
-        <v>1</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H8">
+      <c r="F19" s="11">
+        <v>600</v>
+      </c>
+      <c r="H19" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="J19" s="6">
+        <f>F19*H19</f>
+        <v>900</v>
+      </c>
+      <c r="L19" s="6">
+        <f>IF(D19="BUY", L18+F19,L18-F19)</f>
+        <v>600</v>
+      </c>
+      <c r="N19" s="6">
+        <f>IF(D19="BUY", N18+J19,N18-(F19*P19))</f>
+        <v>900</v>
+      </c>
+      <c r="P19" s="6">
+        <f>IF(D19="BUY",(N18+J19)/L19,P18)</f>
+        <v>1.5</v>
+      </c>
+      <c r="R19" s="6">
+        <f>IF(D19="SELL",(H19-P19)*F19,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S19" s="8">
+        <f>R19+S18</f>
+        <v>-4100</v>
+      </c>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C20" s="4">
+        <f>C19+1</f>
+        <v>13</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="11">
+        <v>600</v>
+      </c>
+      <c r="H20" s="6">
+        <v>2</v>
+      </c>
+      <c r="J20" s="6">
+        <f>F20*H20</f>
+        <v>1200</v>
+      </c>
+      <c r="L20" s="6">
+        <f>IF(D20="BUY", L19+F20,L19-F20)</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="6">
+        <f>IF(D20="BUY", N19+J20,N19-(F20*P20))</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="6">
+        <f>IF(D20="BUY",(N19+J20)/L20,P19)</f>
+        <v>1.5</v>
+      </c>
+      <c r="R20" s="6">
+        <f>IF(D20="SELL",(H20-P20)*F20,0)</f>
+        <v>300</v>
+      </c>
+      <c r="S20" s="8">
+        <f>R20+S19</f>
+        <v>-3800</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C21" s="4">
+        <f>C20+1</f>
+        <v>14</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="11">
+        <v>12</v>
+      </c>
+      <c r="H21" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="J21" s="6">
+        <f>F21*H21</f>
+        <v>90</v>
+      </c>
+      <c r="L21" s="6">
+        <f>IF(D21="BUY", L20+F21,L20-F21)</f>
+        <v>12</v>
+      </c>
+      <c r="N21" s="6">
+        <f>IF(D21="BUY", N20+J21,N20-(F21*P21))</f>
+        <v>90</v>
+      </c>
+      <c r="P21" s="6">
+        <f>IF(D21="BUY",(N20+J21)/L21,P20)</f>
+        <v>7.5</v>
+      </c>
+      <c r="R21" s="6">
+        <f>IF(D21="SELL",(H21-P21)*F21,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="8">
+        <f>R21+S20</f>
+        <v>-3800</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C22" s="4">
+        <f>C21+1</f>
+        <v>15</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="11">
+        <v>10</v>
+      </c>
+      <c r="H22" s="6">
+        <v>10</v>
+      </c>
+      <c r="J22" s="6">
+        <f>F22*H22</f>
         <v>100</v>
       </c>
-      <c r="J8">
-        <v>500</v>
-      </c>
-      <c r="L8">
-        <f>IF(F8="BUY", L7+H8,L7-H8)</f>
-        <v>100</v>
-      </c>
-      <c r="N8">
-        <f>IF(F8="BUY", N7+J8,N7-J8)</f>
-        <v>500</v>
-      </c>
-      <c r="P8">
-        <f>IF(F8="BUY",(N7+J8)/L8)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="E9" s="5">
-        <f>E8+1</f>
+      <c r="L22" s="6">
+        <f>IF(D22="BUY", L21+F22,L21-F22)</f>
         <v>2</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9">
-        <v>200</v>
-      </c>
-      <c r="J9">
-        <v>400</v>
-      </c>
-      <c r="L9">
-        <f>IF(F9="BUY", L8+H9,L8-H9)</f>
-        <v>300</v>
-      </c>
-      <c r="N9">
-        <f>IF(F9="BUY", N8+J9,N8-J9)</f>
-        <v>900</v>
-      </c>
-      <c r="P9">
-        <f>IF(F9="BUY",(N8+J9)/L9)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="E10" s="5">
-        <f>E9+1</f>
-        <v>3</v>
-      </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="F13" s="3"/>
-    </row>
-    <row r="15" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="F15" s="3"/>
+      <c r="N22" s="6">
+        <f>IF(D22="BUY", N21+J22,N21-(F22*P22))</f>
+        <v>15</v>
+      </c>
+      <c r="P22" s="6">
+        <f>IF(D22="BUY",(N21+J22)/L22,P21)</f>
+        <v>7.5</v>
+      </c>
+      <c r="R22" s="6">
+        <f>IF(D22="SELL",(H22-P22)*F22,0)</f>
+        <v>25</v>
+      </c>
+      <c r="S22" s="8">
+        <f>R22+S21</f>
+        <v>-3775</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F1:N1"/>
+    <mergeCell ref="D1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DOC/Share Account Type.xlsx
+++ b/DOC/Share Account Type.xlsx
@@ -80,7 +80,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -144,17 +144,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -439,42 +439,42 @@
   <dimension ref="C1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="6"/>
-    <col min="10" max="10" width="13.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="6"/>
-    <col min="18" max="18" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="5"/>
+    <col min="10" max="10" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="5"/>
+    <col min="18" max="18" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="3:19" x14ac:dyDescent="0.25">
       <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>100001</v>
       </c>
     </row>
@@ -482,7 +482,7 @@
       <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -494,38 +494,38 @@
         <v>2</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I5" s="3"/>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="K5" s="3"/>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="M5" s="3"/>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="O5" s="3"/>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="R5" s="7" t="s">
+      <c r="R5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="S5" s="7" t="s">
+      <c r="S5" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="R6" s="6">
+      <c r="R6" s="5">
         <f>IF(D6="SELL",(H7-P6)*F6,0)</f>
         <v>0</v>
       </c>
@@ -534,606 +534,606 @@
       <c r="C7" s="4">
         <v>0</v>
       </c>
-      <c r="L7" s="6">
-        <v>0</v>
-      </c>
-      <c r="N7" s="6">
-        <f>IF(D7="BUY", N6+J7,N6-(F7*P7))</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="6">
-        <v>0</v>
-      </c>
-      <c r="R7" s="6">
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <f t="shared" ref="N7:N22" si="0">IF(D7="BUY", N6+J7,N6-(F7*P7))</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0</v>
+      </c>
+      <c r="R7" s="5">
         <f>IF(D7="SELL",(H8-P7)*F7,0)</f>
         <v>0</v>
       </c>
-      <c r="S7" s="8">
+      <c r="S7" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C8" s="4">
-        <f>C7+1</f>
+        <f t="shared" ref="C8:C22" si="1">C7+1</f>
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>100</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>5</v>
       </c>
-      <c r="J8" s="6">
-        <f>F8*H8</f>
+      <c r="J8" s="5">
+        <f t="shared" ref="J8:J22" si="2">F8*H8</f>
         <v>500</v>
       </c>
-      <c r="L8" s="6">
-        <f>IF(D8="BUY", L7+F8,L7-F8)</f>
+      <c r="L8" s="5">
+        <f t="shared" ref="L8:L22" si="3">IF(D8="BUY", L7+F8,L7-F8)</f>
         <v>100</v>
       </c>
-      <c r="N8" s="6">
-        <f>IF(D8="BUY", N7+J8,N7-(F8*P8))</f>
+      <c r="N8" s="5">
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="5">
         <f>IF(D8="BUY",(N7+J8)/L8)</f>
         <v>5</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="5">
         <f>IF(D8="SELL",(H9-P8)*F8,0)</f>
         <v>0</v>
       </c>
-      <c r="S8" s="8">
-        <f>R8+S7</f>
+      <c r="S8" s="7">
+        <f t="shared" ref="S8:S22" si="4">R8+S7</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C9" s="4">
-        <f>C8+1</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>200</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>2</v>
       </c>
-      <c r="J9" s="6">
-        <f>F9*H9</f>
+      <c r="J9" s="5">
+        <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="L9" s="6">
-        <f>IF(D9="BUY", L8+F9,L8-F9)</f>
+      <c r="L9" s="5">
+        <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="N9" s="6">
-        <f>IF(D9="BUY", N8+J9,N8-(F9*P9))</f>
+      <c r="N9" s="5">
+        <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="5">
         <f>IF(D9="BUY",(N8+J9)/L9)</f>
         <v>3</v>
       </c>
-      <c r="R9" s="6">
-        <f>IF(D9="SELL",(H9-P9)*F9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S9" s="8">
-        <f>R9+S8</f>
+      <c r="R9" s="5">
+        <f t="shared" ref="R9:R22" si="5">IF(D9="SELL",(H9-P9)*F9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="7">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C10" s="4">
-        <f>C9+1</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>500</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>15</v>
       </c>
-      <c r="J10" s="6">
-        <f>F10*H10</f>
+      <c r="J10" s="5">
+        <f t="shared" si="2"/>
         <v>7500</v>
       </c>
-      <c r="L10" s="6">
-        <f>IF(D10="BUY", L9+F10,L9-F10)</f>
+      <c r="L10" s="5">
+        <f t="shared" si="3"/>
         <v>800</v>
       </c>
-      <c r="N10" s="6">
-        <f>IF(D10="BUY", N9+J10,N9-(F10*P10))</f>
+      <c r="N10" s="5">
+        <f t="shared" si="0"/>
         <v>8400</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="5">
         <f>IF(D10="BUY",(N9+J10)/L10)</f>
         <v>10.5</v>
       </c>
-      <c r="R10" s="6">
-        <f>IF(D10="SELL",(H10-P10)*F10,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S10" s="8">
-        <f>R10+S9</f>
+      <c r="R10" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="7">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C11" s="4">
-        <f>C10+1</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>200</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>11</v>
       </c>
-      <c r="J11" s="6">
-        <f>F11*H11</f>
+      <c r="J11" s="5">
+        <f t="shared" si="2"/>
         <v>2200</v>
       </c>
-      <c r="L11" s="6">
-        <f>IF(D11="BUY", L10+F11,L10-F11)</f>
+      <c r="L11" s="5">
+        <f t="shared" si="3"/>
         <v>600</v>
       </c>
-      <c r="N11" s="6">
-        <f>IF(D11="BUY", N10+J11,N10-(F11*P11))</f>
+      <c r="N11" s="5">
+        <f t="shared" si="0"/>
         <v>6300</v>
       </c>
-      <c r="P11" s="6">
-        <f>IF(D11="BUY",(N10+J11)/L11,P10)</f>
+      <c r="P11" s="5">
+        <f t="shared" ref="P11:P22" si="6">IF(D11="BUY",(N10+J11)/L11,P10)</f>
         <v>10.5</v>
       </c>
-      <c r="R11" s="6">
-        <f>IF(D11="SELL",(H11-P11)*F11,0)</f>
+      <c r="R11" s="5">
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="S11" s="8">
-        <f>R11+S10</f>
+      <c r="S11" s="7">
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C12" s="4">
-        <f>C11+1</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <v>100</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>11</v>
       </c>
-      <c r="J12" s="6">
-        <f>F12*H12</f>
+      <c r="J12" s="5">
+        <f t="shared" si="2"/>
         <v>1100</v>
       </c>
-      <c r="L12" s="6">
-        <f>IF(D12="BUY", L11+F12,L11-F12)</f>
+      <c r="L12" s="5">
+        <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="N12" s="6">
-        <f>IF(D12="BUY", N11+J12,N11-(F12*P12))</f>
+      <c r="N12" s="5">
+        <f t="shared" si="0"/>
         <v>5250</v>
       </c>
-      <c r="P12" s="6">
-        <f>IF(D12="BUY",(N11+J12)/L12,P11)</f>
+      <c r="P12" s="5">
+        <f t="shared" si="6"/>
         <v>10.5</v>
       </c>
-      <c r="R12" s="6">
-        <f>IF(D12="SELL",(H12-P12)*F12,0)</f>
+      <c r="R12" s="5">
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="S12" s="8">
-        <f>R12+S11</f>
+      <c r="S12" s="7">
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
     </row>
     <row r="13" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C13" s="4">
-        <f>C12+1</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <v>500</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>10.5</v>
       </c>
-      <c r="J13" s="6">
-        <f>F13*H13</f>
+      <c r="J13" s="5">
+        <f t="shared" si="2"/>
         <v>5250</v>
       </c>
-      <c r="L13" s="6">
-        <f>IF(D13="BUY", L12+F13,L12-F13)</f>
-        <v>0</v>
-      </c>
-      <c r="N13" s="6">
-        <f>IF(D13="BUY", N12+J13,N12-(F13*P13))</f>
-        <v>0</v>
-      </c>
-      <c r="P13" s="6">
-        <f>IF(D13="BUY",(N12+J13)/L13,P12)</f>
+      <c r="L13" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="5">
+        <f t="shared" si="6"/>
         <v>10.5</v>
       </c>
-      <c r="R13" s="6">
-        <f>IF(D13="SELL",(H13-P13)*F13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S13" s="8">
-        <f>R13+S12</f>
+      <c r="R13" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="7">
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
     </row>
     <row r="14" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C14" s="4">
-        <f>C13+1</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <v>100</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <v>20</v>
       </c>
-      <c r="J14" s="6">
-        <f>F14*H14</f>
+      <c r="J14" s="5">
+        <f t="shared" si="2"/>
         <v>2000</v>
       </c>
-      <c r="L14" s="6">
-        <f>IF(D14="BUY", L13+F14,L13-F14)</f>
+      <c r="L14" s="5">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="N14" s="6">
-        <f>IF(D14="BUY", N13+J14,N13-(F14*P14))</f>
+      <c r="N14" s="5">
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="P14" s="6">
-        <f>IF(D14="BUY",(N13+J14)/L14,P13)</f>
+      <c r="P14" s="5">
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="R14" s="6">
-        <f>IF(D14="SELL",(H14-P14)*F14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S14" s="8">
-        <f>R14+S13</f>
+      <c r="R14" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="7">
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
     </row>
     <row r="15" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C15" s="4">
-        <f>C14+1</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <v>50</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="5">
         <v>25</v>
       </c>
-      <c r="J15" s="6">
-        <f>F15*H15</f>
+      <c r="J15" s="5">
+        <f t="shared" si="2"/>
         <v>1250</v>
       </c>
-      <c r="L15" s="6">
-        <f>IF(D15="BUY", L14+F15,L14-F15)</f>
+      <c r="L15" s="5">
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="N15" s="6">
-        <f>IF(D15="BUY", N14+J15,N14-(F15*P15))</f>
+      <c r="N15" s="5">
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="P15" s="6">
-        <f>IF(D15="BUY",(N14+J15)/L15,P14)</f>
+      <c r="P15" s="5">
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="R15" s="6">
-        <f>IF(D15="SELL",(H15-P15)*F15,0)</f>
+      <c r="R15" s="5">
+        <f t="shared" si="5"/>
         <v>250</v>
       </c>
-      <c r="S15" s="8">
-        <f>R15+S14</f>
+      <c r="S15" s="7">
+        <f t="shared" si="4"/>
         <v>400</v>
       </c>
     </row>
     <row r="16" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C16" s="4">
-        <f>C15+1</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <v>50</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="5">
         <v>30</v>
       </c>
-      <c r="J16" s="6">
-        <f>F16*H16</f>
+      <c r="J16" s="5">
+        <f t="shared" si="2"/>
         <v>1500</v>
       </c>
-      <c r="L16" s="6">
-        <f>IF(D16="BUY", L15+F16,L15-F16)</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="6">
-        <f>IF(D16="BUY", N15+J16,N15-(F16*P16))</f>
-        <v>0</v>
-      </c>
-      <c r="P16" s="6">
-        <f>IF(D16="BUY",(N15+J16)/L16,P15)</f>
+      <c r="L16" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="5">
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="R16" s="6">
-        <f>IF(D16="SELL",(H16-P16)*F16,0)</f>
+      <c r="R16" s="5">
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
-      <c r="S16" s="8">
-        <f>R16+S15</f>
+      <c r="S16" s="7">
+        <f t="shared" si="4"/>
         <v>900</v>
       </c>
     </row>
     <row r="17" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C17" s="4">
-        <f>C16+1</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="10">
         <v>5000</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="5">
         <v>500</v>
       </c>
-      <c r="J17" s="6">
-        <f>F17*H17</f>
+      <c r="J17" s="5">
+        <f t="shared" si="2"/>
         <v>2500000</v>
       </c>
-      <c r="L17" s="6">
-        <f>IF(D17="BUY", L16+F17,L16-F17)</f>
+      <c r="L17" s="5">
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
-      <c r="N17" s="6">
-        <f>IF(D17="BUY", N16+J17,N16-(F17*P17))</f>
+      <c r="N17" s="5">
+        <f t="shared" si="0"/>
         <v>2500000</v>
       </c>
-      <c r="P17" s="6">
-        <f>IF(D17="BUY",(N16+J17)/L17,P16)</f>
+      <c r="P17" s="5">
+        <f t="shared" si="6"/>
         <v>500</v>
       </c>
-      <c r="R17" s="6">
-        <f>IF(D17="SELL",(H17-P17)*F17,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S17" s="8">
-        <f>R17+S16</f>
+      <c r="R17" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="7">
+        <f t="shared" si="4"/>
         <v>900</v>
       </c>
     </row>
     <row r="18" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C18" s="4">
-        <f>C17+1</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="10">
         <v>5000</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="5">
         <v>499</v>
       </c>
-      <c r="J18" s="6">
-        <f>F18*H18</f>
+      <c r="J18" s="5">
+        <f t="shared" si="2"/>
         <v>2495000</v>
       </c>
-      <c r="L18" s="6">
-        <f>IF(D18="BUY", L17+F18,L17-F18)</f>
-        <v>0</v>
-      </c>
-      <c r="N18" s="6">
-        <f>IF(D18="BUY", N17+J18,N17-(F18*P18))</f>
-        <v>0</v>
-      </c>
-      <c r="P18" s="6">
-        <f>IF(D18="BUY",(N17+J18)/L18,P17)</f>
+      <c r="L18" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="5">
+        <f t="shared" si="6"/>
         <v>500</v>
       </c>
-      <c r="R18" s="6">
-        <f>IF(D18="SELL",(H18-P18)*F18,0)</f>
+      <c r="R18" s="5">
+        <f t="shared" si="5"/>
         <v>-5000</v>
       </c>
-      <c r="S18" s="8">
-        <f>R18+S17</f>
+      <c r="S18" s="7">
+        <f t="shared" si="4"/>
         <v>-4100</v>
       </c>
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C19" s="4">
-        <f>C18+1</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="10">
         <v>600</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="5">
         <v>1.5</v>
       </c>
-      <c r="J19" s="6">
-        <f>F19*H19</f>
+      <c r="J19" s="5">
+        <f t="shared" si="2"/>
         <v>900</v>
       </c>
-      <c r="L19" s="6">
-        <f>IF(D19="BUY", L18+F19,L18-F19)</f>
+      <c r="L19" s="5">
+        <f t="shared" si="3"/>
         <v>600</v>
       </c>
-      <c r="N19" s="6">
-        <f>IF(D19="BUY", N18+J19,N18-(F19*P19))</f>
+      <c r="N19" s="5">
+        <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="P19" s="6">
-        <f>IF(D19="BUY",(N18+J19)/L19,P18)</f>
+      <c r="P19" s="5">
+        <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
-      <c r="R19" s="6">
-        <f>IF(D19="SELL",(H19-P19)*F19,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S19" s="8">
-        <f>R19+S18</f>
+      <c r="R19" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="7">
+        <f t="shared" si="4"/>
         <v>-4100</v>
       </c>
     </row>
     <row r="20" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C20" s="4">
-        <f>C19+1</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="10">
         <v>600</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="5">
         <v>2</v>
       </c>
-      <c r="J20" s="6">
-        <f>F20*H20</f>
+      <c r="J20" s="5">
+        <f t="shared" si="2"/>
         <v>1200</v>
       </c>
-      <c r="L20" s="6">
-        <f>IF(D20="BUY", L19+F20,L19-F20)</f>
-        <v>0</v>
-      </c>
-      <c r="N20" s="6">
-        <f>IF(D20="BUY", N19+J20,N19-(F20*P20))</f>
-        <v>0</v>
-      </c>
-      <c r="P20" s="6">
-        <f>IF(D20="BUY",(N19+J20)/L20,P19)</f>
+      <c r="L20" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="5">
+        <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
-      <c r="R20" s="6">
-        <f>IF(D20="SELL",(H20-P20)*F20,0)</f>
+      <c r="R20" s="5">
+        <f t="shared" si="5"/>
         <v>300</v>
       </c>
-      <c r="S20" s="8">
-        <f>R20+S19</f>
+      <c r="S20" s="7">
+        <f t="shared" si="4"/>
         <v>-3800</v>
       </c>
     </row>
     <row r="21" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C21" s="4">
-        <f>C20+1</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="10">
         <v>12</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="5">
         <v>7.5</v>
       </c>
-      <c r="J21" s="6">
-        <f>F21*H21</f>
+      <c r="J21" s="5">
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="L21" s="6">
-        <f>IF(D21="BUY", L20+F21,L20-F21)</f>
+      <c r="L21" s="5">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="N21" s="6">
-        <f>IF(D21="BUY", N20+J21,N20-(F21*P21))</f>
+      <c r="N21" s="5">
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="P21" s="6">
-        <f>IF(D21="BUY",(N20+J21)/L21,P20)</f>
+      <c r="P21" s="5">
+        <f t="shared" si="6"/>
         <v>7.5</v>
       </c>
-      <c r="R21" s="6">
-        <f>IF(D21="SELL",(H21-P21)*F21,0)</f>
-        <v>0</v>
-      </c>
-      <c r="S21" s="8">
-        <f>R21+S20</f>
+      <c r="R21" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="7">
+        <f t="shared" si="4"/>
         <v>-3800</v>
       </c>
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C22" s="4">
-        <f>C21+1</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="10">
         <v>10</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="5">
         <v>10</v>
       </c>
-      <c r="J22" s="6">
-        <f>F22*H22</f>
+      <c r="J22" s="5">
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="L22" s="6">
-        <f>IF(D22="BUY", L21+F22,L21-F22)</f>
+      <c r="L22" s="5">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="N22" s="6">
-        <f>IF(D22="BUY", N21+J22,N21-(F22*P22))</f>
+      <c r="N22" s="5">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="P22" s="6">
-        <f>IF(D22="BUY",(N21+J22)/L22,P21)</f>
+      <c r="P22" s="5">
+        <f t="shared" si="6"/>
         <v>7.5</v>
       </c>
-      <c r="R22" s="6">
-        <f>IF(D22="SELL",(H22-P22)*F22,0)</f>
+      <c r="R22" s="5">
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="S22" s="8">
-        <f>R22+S21</f>
+      <c r="S22" s="7">
+        <f t="shared" si="4"/>
         <v>-3775</v>
       </c>
     </row>

--- a/DOC/Share Account Type.xlsx
+++ b/DOC/Share Account Type.xlsx
@@ -439,7 +439,7 @@
   <dimension ref="C1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
